--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
+      <c r="F343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -19950,104 +19950,104 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
+      <c r="A376" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B376" t="inlineStr">
+      <c r="B376" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
+      <c r="C376" s="2" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D376" t="n">
+      <c r="D376" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E376" t="inlineStr">
+      <c r="E376" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F376" t="inlineStr">
+      <c r="F376" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G376" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I376" t="b">
-        <v>1</v>
-      </c>
-      <c r="J376" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K376" t="b">
-        <v>1</v>
-      </c>
-      <c r="L376" t="inlineStr">
+      <c r="G376" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I376" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J376" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K376" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L376" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
+      <c r="A377" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B377" t="inlineStr">
+      <c r="B377" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
+      <c r="C377" s="2" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D377" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" t="inlineStr">
+      <c r="D377" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F377" t="inlineStr">
+      <c r="F377" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G377" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I377" t="b">
-        <v>1</v>
-      </c>
-      <c r="J377" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K377" t="b">
-        <v>1</v>
-      </c>
-      <c r="L377" t="inlineStr">
+      <c r="G377" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I377" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J377" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K377" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L377" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B391" t="inlineStr">
+      <c r="B391" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C391" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E391" t="inlineStr">
+      <c r="E391" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G391" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K391" t="b">
-        <v>1</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K391" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L391" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B392" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C392" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D392" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G392" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K392" t="b">
-        <v>1</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K392" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L392" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B393" t="inlineStr">
+      <c r="B393" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="C393" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" t="n">
+      <c r="D393" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G393" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K393" t="b">
-        <v>1</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K393" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L393" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B394" t="inlineStr">
+      <c r="B394" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
+      <c r="C394" s="2" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" t="n">
+      <c r="D394" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G394" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K394" t="b">
-        <v>1</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K394" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B395" t="inlineStr">
+      <c r="B395" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C395" s="2" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" t="n">
+      <c r="D395" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="E395" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G395" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K395" t="b">
-        <v>1</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F395" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K395" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L395" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F450" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G450" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/17/word_level_predictions_17.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
+      <c r="F343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -19950,104 +19950,104 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" t="n">
         <v>34</v>
       </c>
-      <c r="B376" s="2" t="inlineStr">
+      <c r="B376" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C376" s="2" t="inlineStr">
+      <c r="C376" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D376" s="2" t="n">
+      <c r="D376" t="n">
         <v>0</v>
       </c>
-      <c r="E376" s="2" t="inlineStr">
+      <c r="E376" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F376" s="2" t="inlineStr">
+      <c r="F376" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G376" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I376" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K376" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L376" s="2" t="inlineStr">
+      <c r="G376" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I376" t="b">
+        <v>1</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K376" t="b">
+        <v>1</v>
+      </c>
+      <c r="L376" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" t="n">
         <v>34</v>
       </c>
-      <c r="B377" s="2" t="inlineStr">
+      <c r="B377" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C377" s="2" t="inlineStr">
+      <c r="C377" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D377" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" s="2" t="inlineStr">
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F377" s="2" t="inlineStr">
+      <c r="F377" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G377" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I377" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K377" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L377" s="2" t="inlineStr">
+      <c r="G377" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I377" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K377" t="b">
+        <v>1</v>
+      </c>
+      <c r="L377" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" t="n">
         <v>35</v>
       </c>
-      <c r="B391" s="2" t="inlineStr">
+      <c r="B391" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" s="2" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" s="2" t="n">
+      <c r="D391" t="n">
         <v>4</v>
       </c>
-      <c r="E391" s="2" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L391" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K391" t="b">
+        <v>1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" t="n">
         <v>35</v>
       </c>
-      <c r="B392" s="2" t="inlineStr">
+      <c r="B392" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" s="2" t="inlineStr">
+      <c r="C392" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" s="2" t="n">
+      <c r="D392" t="n">
         <v>5</v>
       </c>
-      <c r="E392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L392" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K392" t="b">
+        <v>1</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" t="n">
         <v>35</v>
       </c>
-      <c r="B393" s="2" t="inlineStr">
+      <c r="B393" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" s="2" t="inlineStr">
+      <c r="C393" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" s="2" t="n">
+      <c r="D393" t="n">
         <v>6</v>
       </c>
-      <c r="E393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L393" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K393" t="b">
+        <v>1</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" t="n">
         <v>35</v>
       </c>
-      <c r="B394" s="2" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" s="2" t="inlineStr">
+      <c r="C394" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" s="2" t="n">
+      <c r="D394" t="n">
         <v>7</v>
       </c>
-      <c r="E394" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L394" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K394" t="b">
+        <v>1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" t="n">
         <v>35</v>
       </c>
-      <c r="B395" s="2" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" s="2" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" s="2" t="n">
+      <c r="D395" t="n">
         <v>8</v>
       </c>
-      <c r="E395" s="2" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K395" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L395" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K395" t="b">
+        <v>1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F450" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G450" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
